--- a/demoData/toy cement/cementIndustry.xlsx
+++ b/demoData/toy cement/cementIndustry.xlsx
@@ -5,22 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tanzer/GitHub/BlackBlox/excelData/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tanzer/GitHub/BlackBlox/demoData/toy cement/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{525CF037-C5F5-4D4F-9C82-3A1B0F7C2138}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{990D81CA-50F3-EA40-9CDE-27DFAC1F5360}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3540" yWindow="520" windowWidth="25260" windowHeight="17400" activeTab="2" xr2:uid="{6BDE4EC1-0576-1041-BEA7-94E25ADD72B4}"/>
+    <workbookView xWindow="3540" yWindow="460" windowWidth="25260" windowHeight="17400" activeTab="3" xr2:uid="{6BDE4EC1-0576-1041-BEA7-94E25ADD72B4}"/>
   </bookViews>
   <sheets>
     <sheet name="Factory List" sheetId="1" r:id="rId1"/>
-    <sheet name="1990-Absolute" sheetId="4" r:id="rId2"/>
-    <sheet name="2010-Absolute" sheetId="5" r:id="rId3"/>
-    <sheet name="1990-Relative" sheetId="7" r:id="rId4"/>
-    <sheet name="2010-Relative" sheetId="8" r:id="rId5"/>
-    <sheet name="1990-2010-Growth" sheetId="6" r:id="rId6"/>
+    <sheet name="1990" sheetId="4" r:id="rId2"/>
+    <sheet name="2000" sheetId="9" r:id="rId3"/>
+    <sheet name="2010" sheetId="8" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,17 +28,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="22">
   <si>
     <t>Factory Name</t>
   </si>
   <si>
-    <t>cementFactory</t>
-  </si>
-  <si>
-    <t>otherCementFactory</t>
-  </si>
-  <si>
     <t>Factory Chains Sheet</t>
   </si>
   <si>
@@ -62,67 +54,46 @@
     <t>cement</t>
   </si>
   <si>
-    <t>EU-bat</t>
-  </si>
-  <si>
-    <t>EU-old</t>
-  </si>
-  <si>
-    <t>Start Year</t>
-  </si>
-  <si>
-    <t>End Year</t>
-  </si>
-  <si>
-    <t>duplicateCementFactory</t>
-  </si>
-  <si>
-    <t>Start Scenario</t>
-  </si>
-  <si>
-    <t>EU-typ</t>
-  </si>
-  <si>
-    <t>End Scenario</t>
-  </si>
-  <si>
-    <t>clinkerFactory</t>
-  </si>
-  <si>
-    <t>clinker</t>
-  </si>
-  <si>
-    <t>Start Qty</t>
-  </si>
-  <si>
-    <t>Growth Rate</t>
+    <t>Chain List</t>
+  </si>
+  <si>
+    <t>Connections</t>
+  </si>
+  <si>
+    <t>duplicate cement</t>
+  </si>
+  <si>
+    <t>EU-1990</t>
+  </si>
+  <si>
+    <t>EU-BECCS</t>
+  </si>
+  <si>
+    <t>EU-2010</t>
   </si>
   <si>
     <t>industry</t>
   </si>
   <si>
-    <t>blenderFactory</t>
-  </si>
-  <si>
-    <t>same_cement</t>
-  </si>
-  <si>
-    <t>excelData/cementFactory.xlsx</t>
-  </si>
-  <si>
-    <t>excelData/otherCementFactory.xlsx</t>
-  </si>
-  <si>
-    <t>excelData/clinkerFactory.xlsx</t>
-  </si>
-  <si>
-    <t>excelData/blenderFactory.xlsx</t>
-  </si>
-  <si>
-    <t>Chain List</t>
-  </si>
-  <si>
-    <t>Connections</t>
+    <t>EU-2000</t>
+  </si>
+  <si>
+    <t>/Users/Tanzer/GitHub/BlackBlox/demoData/toy cement/factories/cementFactory.xlsx</t>
+  </si>
+  <si>
+    <t>/Users/Tanzer/GitHub/BlackBlox/demoData/toy cement/factories/cementFactory_withCCS.xlsx</t>
+  </si>
+  <si>
+    <t>/Users/Tanzer/GitHub/BlackBlox/demoData/toy cement/factories/cementFactory_mysterious.xlsx</t>
+  </si>
+  <si>
+    <t>CCS cement</t>
+  </si>
+  <si>
+    <t>BECCS cement</t>
+  </si>
+  <si>
+    <t>mysterious cement</t>
   </si>
 </sst>
 </file>
@@ -477,13 +448,13 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.5" customWidth="1"/>
-    <col min="2" max="2" width="17.1640625" customWidth="1"/>
+    <col min="1" max="1" width="25" customWidth="1"/>
+    <col min="2" max="2" width="19.83203125" customWidth="1"/>
     <col min="3" max="3" width="18.83203125" customWidth="1"/>
     <col min="4" max="4" width="25.1640625" customWidth="1"/>
   </cols>
@@ -493,83 +464,80 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -579,15 +547,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F6CBBB1-E2E4-CC4B-8796-B164A9C9EFB5}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" customWidth="1"/>
+    <col min="1" max="1" width="25" customWidth="1"/>
     <col min="2" max="2" width="15.33203125" customWidth="1"/>
     <col min="3" max="3" width="12.5" customWidth="1"/>
   </cols>
@@ -597,38 +565,38 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
         <v>6</v>
-      </c>
-      <c r="C1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C2">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="D3" t="s">
         <v>11</v>
@@ -636,30 +604,44 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="C4">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C5">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6">
+        <v>1000</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -668,16 +650,118 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{464CAE28-609C-4242-8DBB-9F5FE71AC790}">
-  <dimension ref="A1:D5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BBA269E-9DF8-A34F-8475-60D51DD5A5EB}">
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" customWidth="1"/>
+    <col min="1" max="1" width="25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2">
+        <v>1400</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>750</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4">
+        <v>500</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>100</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6">
+        <v>750</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE746189-6A36-404D-ADC0-B082F679DA50}">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="25" customWidth="1"/>
     <col min="2" max="2" width="14.1640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -686,432 +770,94 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
         <v>6</v>
-      </c>
-      <c r="C1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C2">
-        <v>1000</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C3">
-        <v>600</v>
+        <v>0.3</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{982EA2B0-39B0-5F4F-BD9C-BC7CA56E2D0C}">
-  <dimension ref="A1:D6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="13.33203125" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" customWidth="1"/>
-    <col min="3" max="3" width="12.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3">
-        <v>0.4166667</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4">
-        <v>0.1666667</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5">
-        <v>0.4166667</v>
-      </c>
-      <c r="D5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C6">
-        <v>50</v>
+        <v>0.2</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE746189-6A36-404D-ADC0-B082F679DA50}">
-  <dimension ref="A1:D7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="16.6640625" customWidth="1"/>
-    <col min="2" max="2" width="14.1640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4">
-        <v>0.33333299999999999</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5">
-        <v>0.33333299999999999</v>
-      </c>
-      <c r="D5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6">
-        <v>0.33333299999999999</v>
-      </c>
-      <c r="D6" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDE66BEA-8356-504C-BA56-2CCEC299D396}">
-  <dimension ref="A1:H5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J34" sqref="J34"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="13.33203125" customWidth="1"/>
-    <col min="2" max="4" width="15.33203125" customWidth="1"/>
-    <col min="5" max="5" width="12.5" customWidth="1"/>
-    <col min="8" max="8" width="16.1640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" t="s">
         <v>15</v>
-      </c>
-      <c r="F1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2">
-        <v>1990</v>
-      </c>
-      <c r="D2">
-        <v>500</v>
-      </c>
-      <c r="E2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2">
-        <v>2010</v>
-      </c>
-      <c r="G2">
-        <v>-0.01</v>
-      </c>
-      <c r="H2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3">
-        <v>1990</v>
-      </c>
-      <c r="D3">
-        <v>200</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3">
-        <v>2010</v>
-      </c>
-      <c r="G3">
-        <v>0.05</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4">
-        <v>1990</v>
-      </c>
-      <c r="D4">
-        <v>500</v>
-      </c>
-      <c r="E4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4">
-        <v>2010</v>
-      </c>
-      <c r="G4">
-        <v>-0.01</v>
-      </c>
-      <c r="H4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5">
-        <v>1990</v>
-      </c>
-      <c r="D5">
-        <v>50</v>
-      </c>
-      <c r="E5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5">
-        <v>2010</v>
-      </c>
-      <c r="G5">
-        <v>0.03</v>
-      </c>
-      <c r="H5" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
